--- a/archive/EECS394 Location Data.xlsx
+++ b/archive/EECS394 Location Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinpyorha/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinpyorha/Documents/Github/followtheleader/archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="-3300" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="236">
   <si>
     <t>Library</t>
   </si>
@@ -690,6 +690,48 @@
   </si>
   <si>
     <t>3.81</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>A really beautiful place!</t>
+  </si>
+  <si>
+    <t>Sometimes i go in here just to cry</t>
+  </si>
+  <si>
+    <t>Your new home</t>
+  </si>
+  <si>
+    <t>A hidden gem</t>
+  </si>
+  <si>
+    <t>An excellent place for primal scream</t>
+  </si>
+  <si>
+    <t>Best place for cover photos</t>
+  </si>
+  <si>
+    <t>Where the actually talented people live</t>
+  </si>
+  <si>
+    <t>A must see for any Northwestern student!</t>
+  </si>
+  <si>
+    <t>Your daily reminder that DTC was a thing</t>
+  </si>
+  <si>
+    <t>Great place to get some work done</t>
+  </si>
+  <si>
+    <t>Good luck finding your classes</t>
+  </si>
+  <si>
+    <t>Psych 110 memories</t>
+  </si>
+  <si>
+    <t>Well staffed gym with several ameneties</t>
   </si>
 </sst>
 </file>
@@ -1026,18 +1068,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G73"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="6" max="7" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>152</v>
       </c>
@@ -1056,9 +1098,12 @@
       <c r="F1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1077,12 +1122,15 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>"{"&amp;""""&amp;$A$1&amp;""": "&amp;" "&amp;""""&amp;A2&amp;""", "&amp;""""&amp;$B$1&amp;""": "&amp;" "&amp;""""&amp;B2&amp;""", "&amp;""""&amp;$C$1&amp;""": "&amp;" "&amp;""""&amp;C2&amp;""", "&amp;""""&amp;$D$1&amp;""": "&amp;" "&amp;""""&amp;D2&amp;""", "&amp;""""&amp;$E$1&amp;""": "&amp;" "&amp;""""&amp;E2&amp;""", "&amp;""""&amp;$F$1&amp;""": "&amp;" "&amp;""""&amp;F2&amp;""""&amp;"},"</f>
-        <v>{"id":  "1", "type":  "Library", "building":  "Charles Deering Library", "distance":  "2.90", "opened":  "1933", "location":  "1937 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>"{"&amp;""""&amp;$A$1&amp;""": "&amp;" "&amp;""""&amp;A2&amp;""", "&amp;""""&amp;$B$1&amp;""": "&amp;" "&amp;""""&amp;B2&amp;""", "&amp;""""&amp;$C$1&amp;""": "&amp;" "&amp;""""&amp;C2&amp;""", "&amp;""""&amp;$D$1&amp;""": "&amp;" "&amp;""""&amp;D2&amp;""", "&amp;""""&amp;$E$1&amp;""": "&amp;" "&amp;""""&amp;E2&amp;""", "&amp;""""&amp;$F$1&amp;""": "&amp;" "&amp;""""&amp;F2&amp;""", "&amp;""""&amp;$G$1&amp;""": "&amp;" "&amp;""""&amp;G2&amp;""""&amp;"},"</f>
+        <v>{"id":  "1", "type":  "Library", "building":  "Charles Deering Library", "distance":  "2.90", "opened":  "1933", "location":  "1937 Sheridan Road", "review":  "A really beautiful place!"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1102,12 +1150,15 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G66" si="0">"{"&amp;""""&amp;$A$1&amp;""": "&amp;" "&amp;""""&amp;A3&amp;""", "&amp;""""&amp;$B$1&amp;""": "&amp;" "&amp;""""&amp;B3&amp;""", "&amp;""""&amp;$C$1&amp;""": "&amp;" "&amp;""""&amp;C3&amp;""", "&amp;""""&amp;$D$1&amp;""": "&amp;" "&amp;""""&amp;D3&amp;""", "&amp;""""&amp;$E$1&amp;""": "&amp;" "&amp;""""&amp;E3&amp;""", "&amp;""""&amp;$F$1&amp;""": "&amp;" "&amp;""""&amp;F3&amp;""""&amp;"},"</f>
-        <v>{"id":  "2", "type":  "Library", "building":  "Seeley G. Mudd Science and Engineering Library", "distance":  "3.90", "opened":  "1977", "location":  "2233 Tech Drive"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H66" si="0">"{"&amp;""""&amp;$A$1&amp;""": "&amp;" "&amp;""""&amp;A3&amp;""", "&amp;""""&amp;$B$1&amp;""": "&amp;" "&amp;""""&amp;B3&amp;""", "&amp;""""&amp;$C$1&amp;""": "&amp;" "&amp;""""&amp;C3&amp;""", "&amp;""""&amp;$D$1&amp;""": "&amp;" "&amp;""""&amp;D3&amp;""", "&amp;""""&amp;$E$1&amp;""": "&amp;" "&amp;""""&amp;E3&amp;""", "&amp;""""&amp;$F$1&amp;""": "&amp;" "&amp;""""&amp;F3&amp;""", "&amp;""""&amp;$G$1&amp;""": "&amp;" "&amp;""""&amp;G3&amp;""""&amp;"},"</f>
+        <v>{"id":  "2", "type":  "Library", "building":  "Seeley G. Mudd Science and Engineering Library", "distance":  "3.90", "opened":  "1977", "location":  "2233 Tech Drive", "review":  "Sometimes i go in here just to cry"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>3</v>
@@ -1127,12 +1178,15 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "3", "type":  "Library", "building":  "Northwestern University Library", "distance":  "0.45", "opened":  "1970", "location":  "1970 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "3", "type":  "Library", "building":  "Northwestern University Library", "distance":  "0.45", "opened":  "1970", "location":  "1970 Campus Drive", "review":  "Your new home"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1152,12 +1206,13 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "4", "type":  "Performing arts", "building":  "Marjorie Ward Marshall Dance Center", "distance":  "1.69", "opened":  "NA", "location":  "10 Arts Circle Drive"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "4", "type":  "Performing arts", "building":  "Marjorie Ward Marshall Dance Center", "distance":  "1.69", "opened":  "NA", "location":  "10 Arts Circle Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1177,12 +1232,15 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "5", "type":  "Performing arts", "building":  "Mary and Leigh Block Museum of Art", "distance":  "0.12", "opened":  "1980", "location":  "40 Arts Circle Drive"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "5", "type":  "Performing arts", "building":  "Mary and Leigh Block Museum of Art", "distance":  "0.12", "opened":  "1980", "location":  "40 Arts Circle Drive", "review":  "A hidden gem"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1202,12 +1260,15 @@
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "6", "type":  "Performing arts", "building":  "Pick-Staiger Concert Hall", "distance":  "2.37", "opened":  "1975", "location":  "50 Arts Circle Drive"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "6", "type":  "Performing arts", "building":  "Pick-Staiger Concert Hall", "distance":  "2.37", "opened":  "1975", "location":  "50 Arts Circle Drive", "review":  "An excellent place for primal scream"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1227,12 +1288,15 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "7", "type":  "Performing arts", "building":  "Regenstein Hall of Music", "distance":  "4.83", "opened":  "1977", "location":  "60 Arts Circle Drive"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "7", "type":  "Performing arts", "building":  "Regenstein Hall of Music", "distance":  "4.83", "opened":  "1977", "location":  "60 Arts Circle Drive", "review":  "Best place for cover photos"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1252,12 +1316,15 @@
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "8", "type":  "Performing arts", "building":  "Patrick G. and Shirley W. Ryan Center for the Musical Arts", "distance":  "1.17", "opened":  "2016", "location":  "70 Arts Circle"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "8", "type":  "Performing arts", "building":  "Patrick G. and Shirley W. Ryan Center for the Musical Arts", "distance":  "1.17", "opened":  "2016", "location":  "70 Arts Circle", "review":  "Where the actually talented people live"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1277,12 +1344,13 @@
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "9", "type":  "Performing arts", "building":  "John J. Louis Hall", "distance":  "4.11", "opened":  "1991", "location":  "1877 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "9", "type":  "Performing arts", "building":  "John J. Louis Hall", "distance":  "4.11", "opened":  "1991", "location":  "1877 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1302,12 +1370,13 @@
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "10", "type":  "Performing arts", "building":  "Virginia Wadsworth Wirtz Center for the Performing Arts", "distance":  "0.89", "opened":  "1980", "location":  "1949 Campus Drive; 10-30 Arts Circle Drive"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "10", "type":  "Performing arts", "building":  "Virginia Wadsworth Wirtz Center for the Performing Arts", "distance":  "0.89", "opened":  "1980", "location":  "1949 Campus Drive; 10-30 Arts Circle Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1327,12 +1396,13 @@
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "11", "type":  "Performing arts", "building":  "Cahn Auditorium", "distance":  "1.17", "opened":  "1940", "location":  "600 Emerson Street"},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "11", "type":  "Performing arts", "building":  "Cahn Auditorium", "distance":  "1.17", "opened":  "1940", "location":  "600 Emerson Street", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1352,12 +1422,13 @@
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "12", "type":  "Performing arts", "building":  "Brentano Hall", "distance":  "1.43", "opened":  "NA", "location":  "1818 Hinman Avenue"},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "12", "type":  "Performing arts", "building":  "Brentano Hall", "distance":  "1.43", "opened":  "NA", "location":  "1818 Hinman Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1377,12 +1448,13 @@
       <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "13", "type":  "Performing arts", "building":  "Music Practice Hall", "distance":  "0.09", "opened":  "1915", "location":  "1823 Sherman Avenue"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "13", "type":  "Performing arts", "building":  "Music Practice Hall", "distance":  "0.09", "opened":  "1915", "location":  "1823 Sherman Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1402,12 +1474,13 @@
       <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "14", "type":  "Performing arts", "building":  "Lutkin Memorial Hall", "distance":  "3.10", "opened":  "1941", "location":  "700 University Place"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "14", "type":  "Performing arts", "building":  "Lutkin Memorial Hall", "distance":  "3.10", "opened":  "1941", "location":  "700 University Place", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1427,12 +1500,13 @@
       <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "15", "type":  "Science and technology", "building":  "Center for Catalysis and Surface Science", "distance":  "2.16", "opened":  "1984", "location":  "2137 Tech Drive"},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "15", "type":  "Science and technology", "building":  "Center for Catalysis and Surface Science", "distance":  "2.16", "opened":  "1984", "location":  "2137 Tech Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1452,12 +1526,13 @@
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "16", "type":  "Science and technology", "building":  "Cook Hall - Materials &amp; Life Sciences Building", "distance":  "0.62", "opened":  "1992", "location":  "2220 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "16", "type":  "Science and technology", "building":  "Cook Hall - Materials &amp; Life Sciences Building", "distance":  "0.62", "opened":  "1992", "location":  "2220 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1477,12 +1552,15 @@
       <c r="F18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "17", "type":  "Science and technology", "building":  "Dearborn Observatory", "distance":  "3.33", "opened":  "1889", "location":  "2131 Tech Drive"},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "17", "type":  "Science and technology", "building":  "Dearborn Observatory", "distance":  "3.33", "opened":  "1889", "location":  "2131 Tech Drive", "review":  "A must see for any Northwestern student!"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1502,12 +1580,15 @@
       <c r="F19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "18", "type":  "Science and technology", "building":  "Ford Motor Company Engineering Design Center", "distance":  "0.24", "opened":  "2005", "location":  "2133 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "18", "type":  "Science and technology", "building":  "Ford Motor Company Engineering Design Center", "distance":  "0.24", "opened":  "2005", "location":  "2133 Sheridan Road", "review":  "Your daily reminder that DTC was a thing"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1527,12 +1608,13 @@
       <c r="F20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "19", "type":  "Science and technology", "building":  "Frances Searle Building", "distance":  "4.11", "opened":  "1972", "location":  "2240 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "19", "type":  "Science and technology", "building":  "Frances Searle Building", "distance":  "4.11", "opened":  "1972", "location":  "2240 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1552,12 +1634,15 @@
       <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "20", "type":  "Science and technology", "building":  "The Garage", "distance":  "1.17", "opened":  "2015", "location":  "2311 N Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "20", "type":  "Science and technology", "building":  "The Garage", "distance":  "1.17", "opened":  "2015", "location":  "2311 N Campus Drive", "review":  "Great place to get some work done"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1577,12 +1662,13 @@
       <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "21", "type":  "Science and technology", "building":  "Hogan Biological Sciences Building", "distance":  "1.62", "opened":  "NA", "location":  "2205 Tech Drive"},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "21", "type":  "Science and technology", "building":  "Hogan Biological Sciences Building", "distance":  "1.62", "opened":  "NA", "location":  "2205 Tech Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1602,12 +1688,13 @@
       <c r="F23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "22", "type":  "Science and technology", "building":  "Pancoe-NSUHS Life Sciences Pavilion", "distance":  "3.96", "opened":  "2003", "location":  "2200 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "22", "type":  "Science and technology", "building":  "Pancoe-NSUHS Life Sciences Pavilion", "distance":  "3.96", "opened":  "2003", "location":  "2200 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1627,12 +1714,13 @@
       <c r="F24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "23", "type":  "Science and technology", "building":  "Patrick G. and Shirley W. Ryan Hall", "distance":  "3.50", "opened":  "NA", "location":  "2190 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "23", "type":  "Science and technology", "building":  "Patrick G. and Shirley W. Ryan Hall", "distance":  "3.50", "opened":  "NA", "location":  "2190 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1652,12 +1740,13 @@
       <c r="F25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "24", "type":  "Science and technology", "building":  "Richard and Barbara Silverman Hall for Molecular Therapeutics and Diagnostics", "distance":  "2.08", "opened":  "NA", "location":  "2170 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "24", "type":  "Science and technology", "building":  "Richard and Barbara Silverman Hall for Molecular Therapeutics and Diagnostics", "distance":  "2.08", "opened":  "NA", "location":  "2170 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1677,12 +1766,15 @@
       <c r="F26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "25", "type":  "Science and technology", "building":  "Technological Institute", "distance":  "1.21", "opened":  "1942", "location":  "2145 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "25", "type":  "Science and technology", "building":  "Technological Institute", "distance":  "1.21", "opened":  "1942", "location":  "2145 Sheridan Road", "review":  "Good luck finding your classes"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1702,12 +1794,13 @@
       <c r="F27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "26", "type":  "Academic", "building":  "James L Allen Center", "distance":  "4.62", "opened":  "1979", "location":  "2169 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "26", "type":  "Academic", "building":  "James L Allen Center", "distance":  "4.62", "opened":  "1979", "location":  "2169 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1727,12 +1820,13 @@
       <c r="F28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "27", "type":  "Academic", "building":  "Annie May Swift Hall", "distance":  "3.93", "opened":  "1895", "location":  "1920 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "27", "type":  "Academic", "building":  "Annie May Swift Hall", "distance":  "3.93", "opened":  "1895", "location":  "1920 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1752,12 +1846,13 @@
       <c r="F29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "28", "type":  "Academic", "building":  "Chambers Hall", "distance":  "3.82", "opened":  "NA", "location":  "600 Foster St"},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "28", "type":  "Academic", "building":  "Chambers Hall", "distance":  "3.82", "opened":  "NA", "location":  "600 Foster St", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1777,12 +1872,15 @@
       <c r="F30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "29", "type":  "Academic", "building":  "CRESAP Laboratory", "distance":  "3.21", "opened":  "1949", "location":  "2021 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "29", "type":  "Academic", "building":  "CRESAP Laboratory", "distance":  "3.21", "opened":  "1949", "location":  "2021 Sheridan Road", "review":  "Psych 110 memories"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1802,12 +1900,13 @@
       <c r="F31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "30", "type":  "Academic", "building":  "Crowe Hall", "distance":  "1.63", "opened":  "NA", "location":  "1860 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "30", "type":  "Academic", "building":  "Crowe Hall", "distance":  "1.63", "opened":  "NA", "location":  "1860 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1827,12 +1926,13 @@
       <c r="F32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "31", "type":  "Academic", "building":  "Donald P. Jacobs Center", "distance":  "2.18", "opened":  "NA", "location":  "2001 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "31", "type":  "Academic", "building":  "Donald P. Jacobs Center", "distance":  "2.18", "opened":  "NA", "location":  "2001 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1852,12 +1952,13 @@
       <c r="F33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "32", "type":  "Academic", "building":  "Fisk Hall", "distance":  "0.82", "opened":  "1899", "location":  "1845 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "32", "type":  "Academic", "building":  "Fisk Hall", "distance":  "0.82", "opened":  "1899", "location":  "1845 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1877,12 +1978,13 @@
       <c r="F34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "33", "type":  "Academic", "building":  "Harris Hall", "distance":  "2.63", "opened":  "1915", "location":  "1881 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "33", "type":  "Academic", "building":  "Harris Hall", "distance":  "2.63", "opened":  "1915", "location":  "1881 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1902,12 +2004,13 @@
       <c r="F35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "34", "type":  "Academic", "building":  "Kresge Hall", "distance":  "1.12", "opened":  "1955", "location":  "1880 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "34", "type":  "Academic", "building":  "Kresge Hall", "distance":  "1.12", "opened":  "1955", "location":  "1880 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1927,12 +2030,13 @@
       <c r="F36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "35", "type":  "Academic", "building":  "Locy Hall", "distance":  "4.84", "opened":  "1928", "location":  "1850 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "35", "type":  "Academic", "building":  "Locy Hall", "distance":  "4.84", "opened":  "1928", "location":  "1850 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1952,12 +2056,13 @@
       <c r="F37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "36", "type":  "Academic", "building":  "Lunt Hall", "distance":  "1.25", "opened":  "1894", "location":  "2033 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "36", "type":  "Academic", "building":  "Lunt Hall", "distance":  "1.25", "opened":  "1894", "location":  "2033 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1977,12 +2082,13 @@
       <c r="F38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "37", "type":  "Academic", "building":  "McCormick Foundation Center", "distance":  "4.38", "opened":  "2002", "location":  "1870 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "37", "type":  "Academic", "building":  "McCormick Foundation Center", "distance":  "4.38", "opened":  "2002", "location":  "1870 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2002,12 +2108,13 @@
       <c r="F39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "38", "type":  "Academic", "building":  "Scott Hall", "distance":  "2.93", "opened":  "1940", "location":  "601 University Place"},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "38", "type":  "Academic", "building":  "Scott Hall", "distance":  "2.93", "opened":  "1940", "location":  "601 University Place", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2027,12 +2134,13 @@
       <c r="F40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "39", "type":  "Academic", "building":  "Shanley Hall", "distance":  "2.51", "opened":  "NA", "location":  "2031 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "39", "type":  "Academic", "building":  "Shanley Hall", "distance":  "2.51", "opened":  "NA", "location":  "2031 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2052,12 +2160,13 @@
       <c r="F41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "40", "type":  "Academic", "building":  "Swift Hall", "distance":  "1.13", "opened":  "1909", "location":  "2029 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "40", "type":  "Academic", "building":  "Swift Hall", "distance":  "1.13", "opened":  "1909", "location":  "2029 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2077,12 +2186,13 @@
       <c r="F42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "41", "type":  "Academic", "building":  "University Hall", "distance":  "3.39", "opened":  "1869", "location":  "1897 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "41", "type":  "Academic", "building":  "University Hall", "distance":  "3.39", "opened":  "1869", "location":  "1897 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2102,12 +2212,13 @@
       <c r="F43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "42", "type":  "Religious", "building":  "Alice Millar Chapel and Religious Center", "distance":  "3.58", "opened":  "1962", "location":  "1870 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "42", "type":  "Religious", "building":  "Alice Millar Chapel and Religious Center", "distance":  "3.58", "opened":  "1962", "location":  "1870 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2127,12 +2238,13 @@
       <c r="F44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "43", "type":  "Religious", "building":  "Canterbury House", "distance":  "2.76", "opened":  "NA", "location":  "2010 Orrington"},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "43", "type":  "Religious", "building":  "Canterbury House", "distance":  "2.76", "opened":  "NA", "location":  "2010 Orrington", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2152,12 +2264,13 @@
       <c r="F45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "44", "type":  "Religious", "building":  "Fiedler Hillel Center", "distance":  "0.88", "opened":  "NA", "location":  "629 Foster Street"},</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "44", "type":  "Religious", "building":  "Fiedler Hillel Center", "distance":  "0.88", "opened":  "NA", "location":  "629 Foster Street", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2177,12 +2290,13 @@
       <c r="F46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "45", "type":  "Religious", "building":  "Garrett-Evangelical Theological Seminary", "distance":  "2.83", "opened":  "1853", "location":  "2121 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "45", "type":  "Religious", "building":  "Garrett-Evangelical Theological Seminary", "distance":  "2.83", "opened":  "1853", "location":  "2121 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2202,12 +2316,13 @@
       <c r="F47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "46", "type":  "Religious", "building":  "Lutheran Center", "distance":  "3.28", "opened":  "NA", "location":  "2204 Orrington Ave"},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "46", "type":  "Religious", "building":  "Lutheran Center", "distance":  "3.28", "opened":  "NA", "location":  "2204 Orrington Ave", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2227,12 +2342,13 @@
       <c r="F48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "47", "type":  "Religious", "building":  "Sheil Catholic Center/Newman Center", "distance":  "0.07", "opened":  "NA", "location":  "2110 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "47", "type":  "Religious", "building":  "Sheil Catholic Center/Newman Center", "distance":  "0.07", "opened":  "NA", "location":  "2110 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2252,12 +2368,13 @@
       <c r="F49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "48", "type":  "Religious", "building":  "Levere Memorial Temple", "distance":  "1.45", "opened":  "1930", "location":  "1856 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "48", "type":  "Religious", "building":  "Levere Memorial Temple", "distance":  "1.45", "opened":  "1930", "location":  "1856 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2277,12 +2394,13 @@
       <c r="F50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "49", "type":  "Religious", "building":  "University Christian Ministry", "distance":  "3.71", "opened":  "NA", "location":  "1834 Chicago Avenue"},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "49", "type":  "Religious", "building":  "University Christian Ministry", "distance":  "3.71", "opened":  "NA", "location":  "1834 Chicago Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2302,12 +2420,13 @@
       <c r="F51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "50", "type":  "Athletic", "building":  "Anderson Hall/Burton Academic Advising Center", "distance":  "4.25", "opened":  "2005", "location":  "2701 Ashland Avenue"},</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "50", "type":  "Athletic", "building":  "Anderson Hall/Burton Academic Advising Center", "distance":  "4.25", "opened":  "2005", "location":  "2701 Ashland Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2327,12 +2446,13 @@
       <c r="F52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "51", "type":  "Athletic", "building":  "Blomquist Recreation Center", "distance":  "2.13", "opened":  "1963", "location":  "617 Foster Street"},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "51", "type":  "Athletic", "building":  "Blomquist Recreation Center", "distance":  "2.13", "opened":  "1963", "location":  "617 Foster Street", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2352,12 +2472,13 @@
       <c r="F53" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "52", "type":  "Athletic", "building":  "Byron S. Coon Sports Center", "distance":  "4.11", "opened":  "1963", "location":  "2707 Ashland Avenue"},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "52", "type":  "Athletic", "building":  "Byron S. Coon Sports Center", "distance":  "4.11", "opened":  "1963", "location":  "2707 Ashland Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2377,12 +2498,15 @@
       <c r="F54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "53", "type":  "Athletic", "building":  "Combe Tennis Center", "distance":  "4.61", "opened":  "2001", "location":  "2311 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "53", "type":  "Athletic", "building":  "Combe Tennis Center", "distance":  "4.61", "opened":  "2001", "location":  "2311 Campus Drive", "review":  "Well staffed gym with several ameneties"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2402,12 +2526,13 @@
       <c r="F55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "54", "type":  "Athletic", "building":  "Henry Crown Sports Pavilion/Norris Aquatic Center", "distance":  "0.37", "opened":  "1987", "location":  "2311 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "54", "type":  "Athletic", "building":  "Henry Crown Sports Pavilion/Norris Aquatic Center", "distance":  "0.37", "opened":  "1987", "location":  "2311 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2427,12 +2552,13 @@
       <c r="F56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "55", "type":  "Athletic", "building":  "Lanny and Sharon Martin Stadium", "distance":  "4.33", "opened":  "2016", "location":  "2235 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "55", "type":  "Athletic", "building":  "Lanny and Sharon Martin Stadium", "distance":  "4.33", "opened":  "2016", "location":  "2235 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2452,12 +2578,13 @@
       <c r="F57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "56", "type":  "Athletic", "building":  "Nicolet Football Center", "distance":  "0.52", "opened":  "NA", "location":  "2707 Ashland Avenue"},</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "56", "type":  "Athletic", "building":  "Nicolet Football Center", "distance":  "0.52", "opened":  "NA", "location":  "2707 Ashland Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2477,12 +2604,13 @@
       <c r="F58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "57", "type":  "Athletic", "building":  "Patten Gymnasium", "distance":  "3.17", "opened":  "1940", "location":  "2407 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "57", "type":  "Athletic", "building":  "Patten Gymnasium", "distance":  "3.17", "opened":  "1940", "location":  "2407 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2502,12 +2630,13 @@
       <c r="F59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "58", "type":  "Athletic", "building":  "Ryan Field", "distance":  "4.20", "opened":  "1952", "location":  "1501 Central Street"},</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "58", "type":  "Athletic", "building":  "Ryan Field", "distance":  "4.20", "opened":  "1952", "location":  "1501 Central Street", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2527,12 +2656,13 @@
       <c r="F60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "59", "type":  "Athletic", "building":  "Sailing Center", "distance":  "1.98", "opened":  "2014", "location":  "42.0507667,-87.6730947,18z"},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "59", "type":  "Athletic", "building":  "Sailing Center", "distance":  "1.98", "opened":  "2014", "location":  "42.0507667,-87.6730947,18z", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2552,12 +2682,13 @@
       <c r="F61" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "60", "type":  "Athletic", "building":  "Trienens Hall", "distance":  "3.01", "opened":  "1996", "location":  "2707 Ashland Avenue"},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "60", "type":  "Athletic", "building":  "Trienens Hall", "distance":  "3.01", "opened":  "1996", "location":  "2707 Ashland Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2577,12 +2708,13 @@
       <c r="F62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "61", "type":  "Athletic", "building":  "Welsh-Ryan Arena", "distance":  "3.48", "opened":  "1952", "location":  "2705 Ashland Avenue"},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "61", "type":  "Athletic", "building":  "Welsh-Ryan Arena", "distance":  "3.48", "opened":  "1952", "location":  "2705 Ashland Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2602,12 +2734,13 @@
       <c r="F63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "62", "type":  "Administrative", "building":  "Andersen Hall", "distance":  "1.93", "opened":  "2001", "location":  "2003 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "62", "type":  "Administrative", "building":  "Andersen Hall", "distance":  "1.93", "opened":  "2001", "location":  "2003 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2627,12 +2760,13 @@
       <c r="F64" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "63", "type":  "Administrative", "building":  "(Walter) Annenberg Hall", "distance":  "0.01", "opened":  "1994", "location":  "2120 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "63", "type":  "Administrative", "building":  "(Walter) Annenberg Hall", "distance":  "0.01", "opened":  "1994", "location":  "2120 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2652,12 +2786,13 @@
       <c r="F65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "64", "type":  "Administrative", "building":  "Central Utility Plant", "distance":  "1.81", "opened":  "NA", "location":  "2026 N Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "64", "type":  "Administrative", "building":  "Central Utility Plant", "distance":  "1.81", "opened":  "NA", "location":  "2026 N Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -2677,12 +2812,13 @@
       <c r="F66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"id":  "65", "type":  "Administrative", "building":  "Chambers Hall", "distance":  "4.30", "opened":  "NA", "location":  "600 Foster Avenue"},</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":  "65", "type":  "Administrative", "building":  "Chambers Hall", "distance":  "4.30", "opened":  "NA", "location":  "600 Foster Avenue", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -2702,12 +2838,13 @@
       <c r="F67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G73" si="2">"{"&amp;""""&amp;$A$1&amp;""": "&amp;" "&amp;""""&amp;A67&amp;""", "&amp;""""&amp;$B$1&amp;""": "&amp;" "&amp;""""&amp;B67&amp;""", "&amp;""""&amp;$C$1&amp;""": "&amp;" "&amp;""""&amp;C67&amp;""", "&amp;""""&amp;$D$1&amp;""": "&amp;" "&amp;""""&amp;D67&amp;""", "&amp;""""&amp;$E$1&amp;""": "&amp;" "&amp;""""&amp;E67&amp;""", "&amp;""""&amp;$F$1&amp;""": "&amp;" "&amp;""""&amp;F67&amp;""""&amp;"},"</f>
-        <v>{"id":  "66", "type":  "Administrative", "building":  "Evans Scholar House", "distance":  "2.13", "opened":  "1928", "location":  "721 University Place"},</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="str">
+        <f t="shared" ref="H67:H73" si="2">"{"&amp;""""&amp;$A$1&amp;""": "&amp;" "&amp;""""&amp;A67&amp;""", "&amp;""""&amp;$B$1&amp;""": "&amp;" "&amp;""""&amp;B67&amp;""", "&amp;""""&amp;$C$1&amp;""": "&amp;" "&amp;""""&amp;C67&amp;""", "&amp;""""&amp;$D$1&amp;""": "&amp;" "&amp;""""&amp;D67&amp;""", "&amp;""""&amp;$E$1&amp;""": "&amp;" "&amp;""""&amp;E67&amp;""", "&amp;""""&amp;$F$1&amp;""": "&amp;" "&amp;""""&amp;F67&amp;""", "&amp;""""&amp;$G$1&amp;""": "&amp;" "&amp;""""&amp;G67&amp;""""&amp;"},"</f>
+        <v>{"id":  "66", "type":  "Administrative", "building":  "Evans Scholar House", "distance":  "2.13", "opened":  "1928", "location":  "721 University Place", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" ref="A68:A73" si="3">A67+1</f>
         <v>67</v>
@@ -2727,12 +2864,13 @@
       <c r="F68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G68" s="1" t="str">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>{"id":  "67", "type":  "Administrative", "building":  "Family Institute", "distance":  "1.85", "opened":  "NA", "location":  "618 Library Place"},</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>{"id":  "67", "type":  "Administrative", "building":  "Family Institute", "distance":  "1.85", "opened":  "NA", "location":  "618 Library Place", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -2752,12 +2890,13 @@
       <c r="F69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G69" s="1" t="str">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>{"id":  "68", "type":  "Administrative", "building":  "John EvansAlumni Center", "distance":  "2.95", "opened":  "1880", "location":  "1800 Sheridan Road"},</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>{"id":  "68", "type":  "Administrative", "building":  "John EvansAlumni Center", "distance":  "2.95", "opened":  "1880", "location":  "1800 Sheridan Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -2777,12 +2916,13 @@
       <c r="F70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G70" s="1" t="str">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>{"id":  "69", "type":  "Administrative", "building":  "Music Administration Building", "distance":  "3.64", "opened":  "1874", "location":  "711 Elgin Road"},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>{"id":  "69", "type":  "Administrative", "building":  "Music Administration Building", "distance":  "3.64", "opened":  "1874", "location":  "711 Elgin Road", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -2802,12 +2942,13 @@
       <c r="F71" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G71" s="1" t="str">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>{"id":  "70", "type":  "Administrative", "building":  "Norris University Center", "distance":  "2.86", "opened":  "1972", "location":  "1999 Campus Drive"},</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>{"id":  "70", "type":  "Administrative", "building":  "Norris University Center", "distance":  "2.86", "opened":  "1972", "location":  "1999 Campus Drive", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -2827,12 +2968,13 @@
       <c r="F72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G72" s="1" t="str">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>{"id":  "71", "type":  "Administrative", "building":  "Rebecca Crown Center", "distance":  "3.91", "opened":  "1968", "location":  "633 Clark Street"},</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>{"id":  "71", "type":  "Administrative", "building":  "Rebecca Crown Center", "distance":  "3.91", "opened":  "1968", "location":  "633 Clark Street", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -2852,15 +2994,16 @@
       <c r="F73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G73" s="1" t="str">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>{"id":  "72", "type":  "Administrative", "building":  "Segal Visitors Center", "distance":  "3.81", "opened":  "NA", "location":  "1841 Sheridan Rd"},</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>{"id":  "72", "type":  "Administrative", "building":  "Segal Visitors Center", "distance":  "3.81", "opened":  "NA", "location":  "1841 Sheridan Rd", "review":  ""},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>154</v>
       </c>
